--- a/informe_ventas.xlsx
+++ b/informe_ventas.xlsx
@@ -7,20 +7,39 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Resumen" sheetId="1" r:id="rId1"/>
-    <sheet name="Detalle" sheetId="2" r:id="rId2"/>
+    <sheet name="Datos" sheetId="1" r:id="rId1"/>
+    <sheet name="Ventas por Producto" sheetId="2" r:id="rId2"/>
+    <sheet name="Ventas por Cliente" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>Total Ventas</t>
-  </si>
-  <si>
-    <t>Producto</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="117">
+  <si>
+    <t>ID_VENTA</t>
+  </si>
+  <si>
+    <t>FECHA_VENTA</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>PRECIO</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
+  </si>
+  <si>
+    <t>TIENDA</t>
+  </si>
+  <si>
+    <t>TOTAL_VENTA</t>
   </si>
   <si>
     <t>Camisa</t>
@@ -29,28 +48,334 @@
     <t>Pantalón</t>
   </si>
   <si>
+    <t>Camiseta</t>
+  </si>
+  <si>
     <t>Zapatos</t>
   </si>
   <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Ventas</t>
-  </si>
-  <si>
-    <t>2025-05-01</t>
-  </si>
-  <si>
-    <t>2025-05-02</t>
-  </si>
-  <si>
-    <t>2025-05-03</t>
+    <t>Bolso</t>
+  </si>
+  <si>
+    <t>Reloj</t>
+  </si>
+  <si>
+    <t>Gafas</t>
+  </si>
+  <si>
+    <t>Cartera</t>
+  </si>
+  <si>
+    <t>Buzo</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Calcetines</t>
+  </si>
+  <si>
+    <t>Pañuelo</t>
+  </si>
+  <si>
+    <t>Gorro</t>
+  </si>
+  <si>
+    <t>Bufanda</t>
+  </si>
+  <si>
+    <t>Guantes</t>
+  </si>
+  <si>
+    <t>Cinturón</t>
+  </si>
+  <si>
+    <t>Corbata</t>
+  </si>
+  <si>
+    <t>Vestido</t>
+  </si>
+  <si>
+    <t>Faldas</t>
+  </si>
+  <si>
+    <t>Leggings</t>
+  </si>
+  <si>
+    <t>Mochila</t>
+  </si>
+  <si>
+    <t>Cartera pequeña</t>
+  </si>
+  <si>
+    <t>Monedero</t>
+  </si>
+  <si>
+    <t>Llavero</t>
+  </si>
+  <si>
+    <t>Telefono móvil</t>
+  </si>
+  <si>
+    <t>Audífonos</t>
+  </si>
+  <si>
+    <t>Tablet</t>
+  </si>
+  <si>
+    <t>Laptop</t>
+  </si>
+  <si>
+    <t>Smartwatch</t>
+  </si>
+  <si>
+    <t>Cargador</t>
+  </si>
+  <si>
+    <t>Altavoz</t>
+  </si>
+  <si>
+    <t>Cámara</t>
+  </si>
+  <si>
+    <t>Tripode</t>
+  </si>
+  <si>
+    <t>Micrófono</t>
+  </si>
+  <si>
+    <t>Audífonos con micrófono</t>
+  </si>
+  <si>
+    <t>Teclado</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Consola de videojuegos</t>
+  </si>
+  <si>
+    <t>Juego de video</t>
+  </si>
+  <si>
+    <t>Headset</t>
+  </si>
+  <si>
+    <t>Cable HDMI</t>
+  </si>
+  <si>
+    <t>Fuente de poder</t>
+  </si>
+  <si>
+    <t>Gabinete</t>
+  </si>
+  <si>
+    <t>Ventilador</t>
+  </si>
+  <si>
+    <t>Disco duro</t>
+  </si>
+  <si>
+    <t>Tarjeta gráfica</t>
+  </si>
+  <si>
+    <t>Procesador</t>
+  </si>
+  <si>
+    <t>Placa madre</t>
+  </si>
+  <si>
+    <t>Memoria RAM</t>
+  </si>
+  <si>
+    <t>Cliente 1</t>
+  </si>
+  <si>
+    <t>Cliente 2</t>
+  </si>
+  <si>
+    <t>Cliente 3</t>
+  </si>
+  <si>
+    <t>Cliente 4</t>
+  </si>
+  <si>
+    <t>Cliente 5</t>
+  </si>
+  <si>
+    <t>Cliente 6</t>
+  </si>
+  <si>
+    <t>Cliente 7</t>
+  </si>
+  <si>
+    <t>Cliente 8</t>
+  </si>
+  <si>
+    <t>Cliente 9</t>
+  </si>
+  <si>
+    <t>Cliente 10</t>
+  </si>
+  <si>
+    <t>Cliente 11</t>
+  </si>
+  <si>
+    <t>Cliente 12</t>
+  </si>
+  <si>
+    <t>Cliente 13</t>
+  </si>
+  <si>
+    <t>Cliente 14</t>
+  </si>
+  <si>
+    <t>Cliente 15</t>
+  </si>
+  <si>
+    <t>Cliente 16</t>
+  </si>
+  <si>
+    <t>Cliente 17</t>
+  </si>
+  <si>
+    <t>Cliente 18</t>
+  </si>
+  <si>
+    <t>Cliente 19</t>
+  </si>
+  <si>
+    <t>Cliente 20</t>
+  </si>
+  <si>
+    <t>Cliente 21</t>
+  </si>
+  <si>
+    <t>Cliente 22</t>
+  </si>
+  <si>
+    <t>Cliente 23</t>
+  </si>
+  <si>
+    <t>Cliente 24</t>
+  </si>
+  <si>
+    <t>Cliente 25</t>
+  </si>
+  <si>
+    <t>Cliente 26</t>
+  </si>
+  <si>
+    <t>Cliente 27</t>
+  </si>
+  <si>
+    <t>Cliente 28</t>
+  </si>
+  <si>
+    <t>Cliente 29</t>
+  </si>
+  <si>
+    <t>Cliente 30</t>
+  </si>
+  <si>
+    <t>Cliente 31</t>
+  </si>
+  <si>
+    <t>Cliente 32</t>
+  </si>
+  <si>
+    <t>Cliente 33</t>
+  </si>
+  <si>
+    <t>Cliente 34</t>
+  </si>
+  <si>
+    <t>Cliente 35</t>
+  </si>
+  <si>
+    <t>Cliente 36</t>
+  </si>
+  <si>
+    <t>Cliente 37</t>
+  </si>
+  <si>
+    <t>Cliente 38</t>
+  </si>
+  <si>
+    <t>Cliente 39</t>
+  </si>
+  <si>
+    <t>Cliente 40</t>
+  </si>
+  <si>
+    <t>Cliente 41</t>
+  </si>
+  <si>
+    <t>Cliente 42</t>
+  </si>
+  <si>
+    <t>Cliente 43</t>
+  </si>
+  <si>
+    <t>Cliente 44</t>
+  </si>
+  <si>
+    <t>Cliente 45</t>
+  </si>
+  <si>
+    <t>Cliente 46</t>
+  </si>
+  <si>
+    <t>Cliente 47</t>
+  </si>
+  <si>
+    <t>Cliente 48</t>
+  </si>
+  <si>
+    <t>Cliente 49</t>
+  </si>
+  <si>
+    <t>Cliente 50</t>
+  </si>
+  <si>
+    <t>Tienda Centro</t>
+  </si>
+  <si>
+    <t>Tienda Norte</t>
+  </si>
+  <si>
+    <t>Tienda Sur</t>
+  </si>
+  <si>
+    <t>Tienda Oriente</t>
+  </si>
+  <si>
+    <t>Tienda Occidente</t>
+  </si>
+  <si>
+    <t>Tienda Centro Comercial</t>
+  </si>
+  <si>
+    <t>Tienda Universidad</t>
+  </si>
+  <si>
+    <t>Tienda Aeropuerto</t>
+  </si>
+  <si>
+    <t>Tienda Plaza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -103,11 +428,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,42 +728,1336 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45658</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>50000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45659</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>80000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45660</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="E4">
+        <v>40000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45661</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>150000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45662</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>120000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45663</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>80000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45664</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>90000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45665</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+      <c r="E9">
+        <v>70000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45666</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>60000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45667</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>30000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45668</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>15000</v>
+      </c>
+      <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45669</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>10000</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45670</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>20000</v>
+      </c>
+      <c r="F14" t="s">
+        <v>70</v>
+      </c>
+      <c r="G14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45671</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>25000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45672</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>18000</v>
+      </c>
+      <c r="F16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45673</v>
+      </c>
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>35000</v>
+      </c>
+      <c r="F17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H17">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45674</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>40000</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45675</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>80000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45676</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>50000</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
         <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45677</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>40000</v>
+      </c>
+      <c r="F21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" t="s">
+        <v>113</v>
+      </c>
+      <c r="H21">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45678</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22">
+        <v>90000</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45679</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23">
+        <v>15000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45680</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24">
+        <v>10000</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45681</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>5000</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" t="s">
+        <v>111</v>
+      </c>
+      <c r="H25">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45682</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>800000</v>
+      </c>
+      <c r="F26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26">
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45683</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27">
+        <v>150000</v>
+      </c>
+      <c r="F27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" t="s">
+        <v>113</v>
+      </c>
+      <c r="H27">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45684</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28">
+        <v>600000</v>
+      </c>
+      <c r="F28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" t="s">
+        <v>114</v>
+      </c>
+      <c r="H28">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45685</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <v>1500000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45686</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30">
+        <v>300000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" t="s">
+        <v>116</v>
+      </c>
+      <c r="H30">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45687</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31">
+        <v>40000</v>
+      </c>
+      <c r="F31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G31" t="s">
+        <v>113</v>
+      </c>
+      <c r="H31">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45688</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32">
+        <v>120000</v>
+      </c>
+      <c r="F32" t="s">
+        <v>88</v>
+      </c>
+      <c r="G32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45689</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33">
+        <v>500000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45690</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34">
+        <v>80000</v>
+      </c>
+      <c r="F34" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45691</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35">
+        <v>150000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45692</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36">
+        <v>200000</v>
+      </c>
+      <c r="F36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45693</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37">
+        <v>250000</v>
+      </c>
+      <c r="F37" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" t="s">
+        <v>113</v>
+      </c>
+      <c r="H37">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45694</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38">
+        <v>50000</v>
+      </c>
+      <c r="F38" t="s">
+        <v>94</v>
+      </c>
+      <c r="G38" t="s">
+        <v>114</v>
+      </c>
+      <c r="H38">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45695</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39">
+        <v>800000</v>
+      </c>
+      <c r="F39" t="s">
+        <v>95</v>
+      </c>
+      <c r="G39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45696</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40">
+        <v>1200000</v>
+      </c>
+      <c r="F40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45697</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41">
+        <v>150000</v>
+      </c>
+      <c r="F41" t="s">
+        <v>97</v>
+      </c>
+      <c r="G41" t="s">
+        <v>113</v>
+      </c>
+      <c r="H41">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45698</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42">
+        <v>180000</v>
+      </c>
+      <c r="F42" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" t="s">
+        <v>108</v>
+      </c>
+      <c r="H42">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45699</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43">
+        <v>30000</v>
+      </c>
+      <c r="F43" t="s">
+        <v>99</v>
+      </c>
+      <c r="G43" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45700</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44">
+        <v>200000</v>
+      </c>
+      <c r="F44" t="s">
+        <v>100</v>
+      </c>
+      <c r="G44" t="s">
+        <v>110</v>
+      </c>
+      <c r="H44">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45701</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45">
+        <v>80000</v>
+      </c>
+      <c r="F45" t="s">
+        <v>101</v>
+      </c>
+      <c r="G45" t="s">
+        <v>111</v>
+      </c>
+      <c r="H45">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45702</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46">
+        <v>30000</v>
+      </c>
+      <c r="F46" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" t="s">
+        <v>112</v>
+      </c>
+      <c r="H46">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45703</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47">
+        <v>350000</v>
+      </c>
+      <c r="F47" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45704</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48">
+        <v>800000</v>
+      </c>
+      <c r="F48" t="s">
+        <v>104</v>
+      </c>
+      <c r="G48" t="s">
+        <v>114</v>
+      </c>
+      <c r="H48">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45705</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>55</v>
+      </c>
+      <c r="E49">
+        <v>1200000</v>
+      </c>
+      <c r="F49" t="s">
+        <v>105</v>
+      </c>
+      <c r="G49" t="s">
+        <v>115</v>
+      </c>
+      <c r="H49">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45706</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50">
+        <v>900000</v>
+      </c>
+      <c r="F50" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" t="s">
+        <v>116</v>
+      </c>
+      <c r="H50">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45707</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51">
+        <v>300000</v>
+      </c>
+      <c r="F51" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51">
+        <v>600000</v>
       </c>
     </row>
   </sheetData>
@@ -447,54 +2067,839 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47">
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51">
+        <v>450000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="B2">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>20</v>
+        <v>68</v>
+      </c>
+      <c r="B4">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19">
+        <v>3200000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B38">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>106</v>
+      </c>
+      <c r="B45">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51">
+        <v>60000</v>
       </c>
     </row>
   </sheetData>
